--- a/AutoService/ExcelPatterns/ExcelOrderPattern.xlsx
+++ b/AutoService/ExcelPatterns/ExcelOrderPattern.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Дата и время приема заказа</t>
   </si>
@@ -72,17 +72,10 @@
     <t>Итого зап.части(руб.):</t>
   </si>
   <si>
-    <t>Исполнитель ___________________ /  Крутов И.Н./</t>
-  </si>
-  <si>
     <t>М.П.</t>
   </si>
   <si>
     <t>Претензий по комплектности не имею. С рекомендациями по использованию результатов работ ознакомлен. С окончательной суммой оплаты работ и стоимостью запасных частей согласен.</t>
-  </si>
-  <si>
-    <t>Заказчик : ___________________________/ ___________________/
-                                «       »______________   201_г.</t>
   </si>
   <si>
     <t>Итого(руб.)</t>
@@ -97,23 +90,14 @@
     <t xml:space="preserve">Государственный  рег.номер  </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Исполнитель: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ИП Крутов И.Н. 607060, Нижегородская обл, г.Выкса, ул.Герцена, д.52а
-8-960-181-79-56</t>
-    </r>
+    <t>Марка, модель</t>
   </si>
   <si>
-    <t>Марка, модель</t>
+    <t>Заказчик : ___________________________/ ___________________/
+                                «       »______________   202_г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исполнитель ____________________ /  </t>
   </si>
 </sst>
 </file>
@@ -200,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -311,11 +295,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -333,41 +352,185 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -378,155 +541,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +864,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="12"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -839,17 +873,15 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -861,37 +893,37 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="B3" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -899,12 +931,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -916,19 +948,19 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="60">
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="R5" s="60"/>
+      <c r="R5" s="35"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -940,20 +972,20 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65">
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="28">
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -965,19 +997,19 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="60">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="35">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R7" s="60"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:18" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1000,129 +1032,129 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="25" t="s">
+      <c r="A10" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="33"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="60"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="25" t="s">
+      <c r="A11" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="33"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="60"/>
     </row>
     <row r="12" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="18" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="35"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1133,976 +1165,1138 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="69" t="s">
+      <c r="P15" s="34"/>
+      <c r="Q15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="70"/>
+      <c r="R15" s="34"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="37"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="37"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="37"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="37"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>9</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="37"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>10</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="37"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>11</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>12</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="37"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>13</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>14</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="37"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>15</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="37"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>16</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="37"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="20"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>17</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="20"/>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>18</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="37"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>19</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="37"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="20"/>
     </row>
     <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>20</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="37"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
     </row>
     <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-    </row>
-    <row r="37" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O38" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R38" s="57"/>
+      <c r="A36" s="6">
+        <v>21</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="73"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>22</v>
+      </c>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="73"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>23</v>
+      </c>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="73"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>1</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="73"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>2</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
+        <v>25</v>
+      </c>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="73"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>3</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="36"/>
+      <c r="M41" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="37"/>
       <c r="R41" s="37"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>4</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="37"/>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>5</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="37"/>
+      <c r="A42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>6</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="20"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>7</v>
-      </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="20"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>8</v>
-      </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="37"/>
+        <v>3</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>9</v>
-      </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="20"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>10</v>
-      </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="37"/>
+        <v>5</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="20"/>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>11</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="20"/>
     </row>
     <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>12</v>
-      </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20"/>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
+        <v>8</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
+    </row>
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>9</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20"/>
+    </row>
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>10</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="20"/>
+    </row>
+    <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>11</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20"/>
+    </row>
+    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>12</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="20"/>
+    </row>
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <v>13</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="37"/>
-    </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52" s="19" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="20"/>
+    </row>
+    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>14</v>
+      </c>
+      <c r="B57" s="74"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="73"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
         <v>15</v>
       </c>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-    </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-    </row>
-    <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
+      <c r="B58" s="74"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="73"/>
+    </row>
+    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
         <v>16</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-    </row>
-    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="56" t="s">
+      <c r="B59" s="74"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="73"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
         <v>17</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
+      <c r="B60" s="74"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="73"/>
+    </row>
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L61" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="20"/>
+    </row>
+    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L62" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="20"/>
+    </row>
+    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+    </row>
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="63"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="66"/>
+      <c r="R67" s="66"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
@@ -2633,131 +2827,60 @@
       <c r="I150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="B47:M47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="B48:M48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="B45:M45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="J9:R9"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
+  <mergeCells count="171">
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="B53:M53"/>
+    <mergeCell ref="B54:M54"/>
+    <mergeCell ref="B55:M55"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="A68:N69"/>
+    <mergeCell ref="A67:R67"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B36:L36"/>
+    <mergeCell ref="B38:L38"/>
+    <mergeCell ref="B39:L39"/>
+    <mergeCell ref="B40:L40"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="B56:M56"/>
+    <mergeCell ref="L62:P62"/>
+    <mergeCell ref="B33:L33"/>
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="B35:L35"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="N54:R54"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="B39:M39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="B40:M40"/>
-    <mergeCell ref="B41:M41"/>
-    <mergeCell ref="B42:M42"/>
-    <mergeCell ref="B43:M43"/>
     <mergeCell ref="O35:P35"/>
     <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="A57:R57"/>
-    <mergeCell ref="A58:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q62:R62"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="G11:I11"/>
@@ -2776,11 +2899,108 @@
     <mergeCell ref="B50:M50"/>
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="B45:M45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="B48:M48"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q61:R61"/>
     <mergeCell ref="B51:M51"/>
     <mergeCell ref="O51:P51"/>
     <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="L61:P61"/>
+    <mergeCell ref="B57:M57"/>
+    <mergeCell ref="B58:M58"/>
+    <mergeCell ref="B59:M59"/>
+    <mergeCell ref="B60:M60"/>
+    <mergeCell ref="B52:M52"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>